--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -948,7 +948,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make sure to use regular price. The digital price tags make it difficult to figure out actual </t>
+          <t>USE PRICE LISTED ON SHELF TAGS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -993,11 +993,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>retail, we need to count everything at the sale price first and then recount with the "save</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -948,7 +948,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>USE PRICE LISTED ON SHELF TAGS</t>
+          <t>USE PRICE LISTED ON DIGITAL SHELF TAGS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -993,7 +993,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>WE WILL NOW BE USING PRICES AS LISTED. IF IT'S A SALE PRICE LISTED THEN TAKE THE SALE PRICE</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1030,7 +1034,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> x.xx".  Manager here also doesn't look over report until the end</t>
+          <t>Manager here also doesn't look over report until the end</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2195,11 +2195,7 @@
           <t>Anisha</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -2643,13 +2639,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week, work w/ Anisha</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2692,21 +2687,9 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2817,7 +2800,11 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -2880,7 +2867,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2939,7 +2926,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2999,7 +2986,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
+          <t>2605 BROADWAY</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3050,7 +3037,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2605 BROADWAY</t>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3105,7 +3092,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3161,7 +3148,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>Meet at the office due to small parking lot.  6:15 am meet</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3204,23 +3191,18 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sara S</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>@ Store,
-1st financial,
-work w/ Leyna</t>
+4th week</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Meet at the office due to small parking lot.  6:15 am meet</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3255,26 +3237,25 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store,
-4th week</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -3313,19 +3294,15 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -3364,32 +3341,19 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Sara S</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd week, work w/ Leyna</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3412,15 +3376,20 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3447,23 +3416,26 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3485,26 +3457,14 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3535,7 +3495,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3566,7 +3526,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3597,7 +3557,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3628,7 +3588,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3657,11 +3617,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3687,9 +3643,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3716,19 +3684,15 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3755,12 +3719,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3790,12 +3754,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3825,12 +3789,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3860,12 +3824,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3880,41 +3844,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -2736,7 +2736,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>USE PRICE LISTED ON DIGITAL SHELF TAGS</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2783,21 +2787,13 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>WE WILL NOW BE USING PRICES AS LISTED. IF IT'S A SALE PRICE LISTED THEN TAKE THE SALE PRICE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
@@ -2847,22 +2843,9 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
@@ -2913,15 +2896,19 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -2973,15 +2960,20 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
@@ -3024,12 +3016,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3075,19 +3067,15 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
@@ -3130,20 +3118,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -3186,18 +3169,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>@ Store,
-4th week</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3237,9 +3219,22 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3288,9 +3283,22 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store,
+4th week</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3194,13 +3194,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3226,45 +3225,45 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>Leyna</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3290,13 +3289,13 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>@ Store,
-4th week</t>
+Trainer</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3319,7 +3318,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3343,9 +3342,22 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store,
+4th week</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
@@ -3359,9 +3371,21 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3399,9 +3423,21 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3439,11 +3475,7 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3470,11 +3502,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3503,7 +3531,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3534,7 +3562,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3565,7 +3593,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3596,7 +3624,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3625,7 +3653,11 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3651,21 +3683,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3690,16 +3714,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3727,15 +3743,19 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3762,12 +3782,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3797,12 +3817,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3832,12 +3852,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3852,6 +3872,76 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -1245,7 +1245,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -3458,21 +3458,9 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -1566,7 +1566,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1716,15 +1716,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1785,12 +1780,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1853,14 +1849,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima,
-Trainer</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1926,13 +1920,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -1998,12 +1993,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2058,7 +2054,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2101,13 +2097,12 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store, 
-4th week, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2157,12 +2152,13 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th week, work w/ Michael</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2212,7 +2208,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2262,9 +2258,21 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -2357,11 +2365,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2407,7 +2411,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2459,7 +2463,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2510,7 +2514,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1621 SANDY HOLLOW RD</t>
+          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2561,7 +2565,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fDZakniRj1n</t>
+          <t>1621 SANDY HOLLOW RD</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2608,7 +2612,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>https://goo.gl/maps/fDZakniRj1n</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2665,7 +2669,11 @@
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2708,21 +2716,9 @@
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2766,15 +2762,19 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -2822,12 +2822,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2873,12 +2873,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2937,12 +2937,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2999,8 +2999,16 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,13 +2810,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Brianna E</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week, work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -2862,12 +2861,13 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2925,13 +2925,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -2990,7 +2989,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3049,12 +3048,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3100,12 +3099,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3151,7 +3150,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3202,12 +3201,13 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3265,13 +3265,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3326,7 +3325,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3386,12 +3385,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3431,21 +3430,9 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3498,7 +3485,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3527,7 +3518,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3558,7 +3549,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3589,7 +3580,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3620,7 +3611,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3651,7 +3642,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3680,11 +3671,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3710,9 +3697,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3739,19 +3738,15 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3778,12 +3773,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3813,12 +3808,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3848,12 +3843,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3883,14 +3878,10 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3903,41 +3894,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,12 +1977,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 
+4th week, work w/ Michael</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2030,22 +2031,9 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store, 
-4th week, work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2142,7 +2130,11 @@
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
@@ -2196,7 +2188,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2253,7 +2245,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2320,7 +2312,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
+          <t>6950 W STATE ST</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2359,7 +2351,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2403,7 +2395,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2455,7 +2447,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2506,7 +2498,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>5:00 am meet for Sarah &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2555,11 +2547,7 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah &amp; Lori at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2605,9 +2593,21 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2654,17 +2654,18 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2701,18 +2702,18 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>Driver 1/2,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2745,18 +2746,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2805,17 +2805,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -2856,18 +2856,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2920,12 +2919,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2984,17 +2983,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3043,17 +3042,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3094,12 +3093,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3145,17 +3144,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3196,18 +3195,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3260,17 +3258,17 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3320,17 +3318,17 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3378,21 +3376,9 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3458,7 +3444,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3487,7 +3477,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3518,7 +3508,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3549,7 +3539,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3580,7 +3570,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3611,7 +3601,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3640,11 +3630,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3670,9 +3656,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3699,19 +3697,15 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3738,12 +3732,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3773,12 +3767,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3808,12 +3802,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3843,14 +3837,10 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -3863,37 +3853,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-05-25 to 10-11-25 Madison Schedule.xlsx
+++ b/10-05-25 to 10-11-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3822,37 +3822,6 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
